--- a/biology/Histoire de la zoologie et de la botanique/Vladimir_Karavaïev/Vladimir_Karavaïev.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Vladimir_Karavaïev/Vladimir_Karavaïev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vladimir_Karava%C3%AFev</t>
+          <t>Vladimir_Karavaïev</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Afanassievitch Karavaïev (en russe : Владимир Афанасьевич Караваев), né le 9 mars 1864 à Kiev et mort le 7 janvier 1939, est un entomologiste soviétique qui s'est spécialisé dans la myrmécologie Il était docteur ès sciences biologiques et directeur du musée zoologique de l'Académie des sciences de la RSS d'Ukraine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vladimir_Karava%C3%AFev</t>
+          <t>Vladimir_Karavaïev</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladimir Karavaïev termine en 1890 ses études à l'Université impériale Saint-Vladimir de Kiev. Il fait une expédition à bord de la canonnière Zaporojets en mer Noire en 1892. Il travaille de 1892 à 1894 à la station biologique de Villefranche-sur-Mer au bord de la Méditerranée, puis à la station zoologique de Naples en 1896, où il étudie différents sortes de crustacés et d'invertébrés. Il travaille ensuite à la station biologique de Sébastopol qu'il dirige en 1898, mais il part quelques mois plus tard en expédition à l'île de Java pour y étudier les fourmis et y retourne en 1912-1913. En 1909, il est au Soudan et en Égypte et continue en 1910 en Algérie et en Tunisie. Il publie beaucoup à cette époque dans la Revue russe d'entomologie. Il commence à travailler au musée zoologique de Kiev en 1919 qu'il dirige de 1927 à 1934. Il effectue des expéditions en Ukraine, en Crimée, dans le Caucase et dans le Turkestan.
 Karavaïev a décrit 4 nouveaux genres de fourmis, 4 sous-genres, 98 espèces et plus de 160 sous-espèces. Parmi ceux-ci:
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vladimir_Karava%C3%AFev</t>
+          <t>Vladimir_Karavaïev</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Karavaievia Emery, 1925 (sous-genre du genre Camponotus) Formicinae
 Karawajewella Donisthorpe, 1944 (= Dolichoderus Lund, 1831)
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vladimir_Karava%C3%AFev</t>
+          <t>Vladimir_Karavaïev</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,7 +612,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Karavaïev est l'auteur de plus d'une centaine de publications, parmi lesquelles:
 (de) Wladimir Karawajew, « Beobachtungen über die Struktur und Vermehrung von Aulacantha scolymantha Haeck. » (1895)
